--- a/users.xlsx
+++ b/users.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -586,6 +586,57 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>aa</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>scrypt:32768:8:1$lIcLEp7oO8yxPX3h$d21511d987e83891dd583485c369fa12b43ff70001dff777773a024bcf24b5fa582f0f6c5571844d840c2891742f345c956379ab79721296caba55f1addb6eed</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>student</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>aaa</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>scrypt:32768:8:1$m8WrRTL3iwYYIUYC$a09341cd1fd8c6df0406a861d91640c229980735b22513b17ca8c5f1d1d8f5265844048ce52a45d0e73cac188a4fe5e34c0baedb7a25c3d1552ea2c5bd332cd3</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>student</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>testct</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>scrypt:32768:8:1$0HJjPAzIqFNvh4Pu$08704a7645953fd539dcdd4ff42cd7f5e4e945306159d051952f3fe87b0f413b959bf78c1f4855bb4e53207f3819123a27db292da985d3603e617fd7d261124e</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>student</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/users.xlsx
+++ b/users.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -637,6 +637,23 @@
         </is>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>hezihan</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>scrypt:32768:8:1$PZHknjn60Wpx7SOw$37e549697577c7b5e2723b61faab9572675d7d9fbc0a68eebb4b4202a16f86fddb816540571c5039f3318b4675ca0706a6704372c947506bbe1491a3608bc6f4</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>student</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/users.xlsx
+++ b/users.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -654,6 +654,23 @@
         </is>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>laoshi</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>scrypt:32768:8:1$1ZvOLs62CPPPpMhU$59fa33f94b1f741306cdad4e8c2a128e93c49da8a082257666dec0404e9032cd9d37cafc97ba38870fd755e3ad991c0e74e07cc7d1ed5714ff05aa5ccf07f2a8</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>teacher</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
